--- a/DecisionTree/examdata.xlsx
+++ b/DecisionTree/examdata.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
